--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="89">
   <si>
     <t>用例编号</t>
   </si>
@@ -885,6 +885,10 @@
       </rPr>
       <t>弹窗套件</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1393,18 +1397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,11 +1461,14 @@
       <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
@@ -1512,9 +1520,10 @@
       <c r="Q2" s="7">
         <v>1</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R2" s="2"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
@@ -1566,9 +1575,10 @@
       <c r="Q3" s="7">
         <v>1</v>
       </c>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1586,9 +1596,10 @@
       <c r="O4" s="21"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R4" s="3"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1606,9 +1617,10 @@
       <c r="O5" s="21"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1626,9 +1638,10 @@
       <c r="O6" s="21"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1646,9 +1659,10 @@
       <c r="O7" s="21"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1666,9 +1680,10 @@
       <c r="O8" s="21"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1686,16 +1701,26 @@
       <c r="O9" s="21"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L9 R3:R1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA10:AA1048576 M1:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10:AB1048576 M1:M9">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1706,15 +1731,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="19" max="19" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:20" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,11 +1797,14 @@
       <c r="R1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
@@ -1828,7 +1859,38 @@
       <c r="R2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1836,7 +1898,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2135,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2152,11 +2214,12 @@
     <col min="13" max="13" width="6" style="4" customWidth="1"/>
     <col min="14" max="17" width="6" style="5" customWidth="1"/>
     <col min="18" max="18" width="19.875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="10.875" style="8"/>
+    <col min="19" max="19" width="13.5" style="4" customWidth="1"/>
+    <col min="20" max="20" width="6.625" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:20" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,11 +2274,14 @@
       <c r="R1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>52</v>
       </c>
@@ -2270,9 +2336,10 @@
       <c r="R2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S2" s="2"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
@@ -2327,9 +2394,10 @@
       <c r="R3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
@@ -2382,9 +2450,10 @@
       <c r="R4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S4" s="3"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
@@ -2437,9 +2506,10 @@
       <c r="R5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S5" s="3"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>56</v>
       </c>
@@ -2492,9 +2562,10 @@
       <c r="R6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>57</v>
       </c>
@@ -2547,9 +2618,10 @@
       <c r="R7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>58</v>
       </c>
@@ -2604,9 +2676,10 @@
       <c r="R8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
@@ -2661,12 +2734,22 @@
       <c r="R9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="73.5" customHeight="1">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" ht="73.5" customHeight="1">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" ht="73.5" customHeight="1">
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M10:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M10:M1048576 S3:S1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9">

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -601,10 +601,6 @@
   </si>
   <si>
     <t>选择结构单元按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元；Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -889,6 +885,10 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1435,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1462,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>12</v>
@@ -1470,52 +1470,52 @@
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>
@@ -1525,37 +1525,37 @@
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
@@ -1564,13 +1564,13 @@
         <v>14</v>
       </c>
       <c r="N3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q3" s="7">
         <v>1</v>
@@ -1733,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1768,10 +1768,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -1795,10 +1795,10 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>12</v>
@@ -1806,58 +1806,58 @@
     </row>
     <row r="2" spans="1:20" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="7"/>
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1924,10 +1924,10 @@
     <row r="1" spans="1:8" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>20</v>
@@ -1939,10 +1939,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1">
@@ -1950,25 +1950,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1">
@@ -1976,25 +1976,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="56.25" customHeight="1">
@@ -2002,25 +2002,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="56.25" customHeight="1">
@@ -2028,25 +2028,25 @@
         <v>16</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="56.25" customHeight="1">
@@ -2077,106 +2077,106 @@
     </row>
     <row r="7" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="C7" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1"/>
@@ -2245,10 +2245,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -2260,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -2272,10 +2272,10 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>12</v>
@@ -2283,95 +2283,95 @@
     </row>
     <row r="2" spans="1:20" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
@@ -2380,53 +2380,53 @@
         <v>14</v>
       </c>
       <c r="N3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q3" s="7">
         <v>1</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="s">
@@ -2436,53 +2436,53 @@
         <v>14</v>
       </c>
       <c r="N4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q4" s="7">
         <v>1</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
@@ -2492,53 +2492,53 @@
         <v>14</v>
       </c>
       <c r="N5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q5" s="7">
         <v>1</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
@@ -2548,112 +2548,112 @@
         <v>14</v>
       </c>
       <c r="N6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="O7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q7" s="7">
         <v>1</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>6</v>
@@ -2662,77 +2662,77 @@
         <v>14</v>
       </c>
       <c r="N8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q8" s="7">
         <v>1</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="O9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="4"/>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -1733,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1911,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化2D单元尺寸定义.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -396,7 +396,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
   <si>
     <t>用例编号</t>
   </si>
@@ -571,10 +571,6 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试结果等待时间</t>
@@ -889,6 +885,10 @@
   </si>
   <si>
     <t>选择结构单元][Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +986,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +996,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1092,6 +1098,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,25 +1432,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1459,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>12</v>
@@ -1470,52 +1482,52 @@
     </row>
     <row r="2" spans="1:19" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>
@@ -1525,37 +1537,37 @@
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>6</v>
@@ -1564,13 +1576,13 @@
         <v>14</v>
       </c>
       <c r="N3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="Q3" s="7">
         <v>1</v>
@@ -1733,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1753,25 +1765,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1783,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -1792,13 +1804,13 @@
         <v>5</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>12</v>
@@ -1806,58 +1818,58 @@
     </row>
     <row r="2" spans="1:20" s="10" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="Q2" s="7">
         <v>1</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="7"/>
@@ -1912,7 +1924,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1924,25 +1936,25 @@
     <row r="1" spans="1:8" s="9" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="15"/>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1">
@@ -1950,25 +1962,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="56.25" customHeight="1">
@@ -1976,25 +1988,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="56.25" customHeight="1">
@@ -2002,51 +2014,51 @@
         <v>10</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="56.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="56.25" customHeight="1">
@@ -2077,106 +2089,106 @@
     </row>
     <row r="7" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>80</v>
-      </c>
       <c r="C7" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="G7" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1" ht="56.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5" customHeight="1"/>
@@ -2197,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -2208,551 +2220,539 @@
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="10" width="5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="31.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6" style="4" customWidth="1"/>
-    <col min="14" max="17" width="6" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6.625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="10.875" style="8"/>
+    <col min="4" max="4" width="25.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" customWidth="1"/>
+    <col min="7" max="10" width="6" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="19" width="5" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" ht="87" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="87" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="10" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="G7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="G9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="H9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="7">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="K9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="3">
         <v>1</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="Q9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
-    </row>
-    <row r="10" spans="1:20" ht="73.5" customHeight="1">
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:20" ht="73.5" customHeight="1">
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" ht="73.5" customHeight="1">
-      <c r="S12" s="3"/>
+      <c r="R9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="73.5" customHeight="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="73.5" customHeight="1">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="73.5" customHeight="1">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M10:M1048576 S3:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576 F10:F1048576 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F9">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
